--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="9045" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>POS_0</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>POS_Bi_8</t>
+  </si>
+  <si>
+    <t>POS_Bi_4</t>
+  </si>
+  <si>
+    <t>POS_Bi_3</t>
+  </si>
+  <si>
+    <t>POS_Bi_2</t>
+  </si>
+  <si>
+    <t>POS_Bi4</t>
   </si>
 </sst>
 </file>
@@ -106,8 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,71 +429,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA229"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -523,6 +541,9 @@
       <c r="P2" t="s">
         <v>5</v>
       </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
       <c r="R2" t="s">
         <v>5</v>
       </c>
@@ -535,8 +556,17 @@
       <c r="X2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.75187992838368001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -545,7 +575,7 @@
         <v>0.77035794772196653</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:Y3" si="0">AVERAGE(C6:C229)</f>
+        <f t="shared" ref="C3:Z3" si="0">AVERAGE(C6:C229)</f>
         <v>0.76949125971972421</v>
       </c>
       <c r="D3">
@@ -596,24 +626,46 @@
         <f t="shared" si="0"/>
         <v>0.95242795051847418</v>
       </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0.96023553523456362</v>
+      </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>0.78291089531485192</v>
+        <v>0.96051780380662033</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.78829622351933926</v>
+        <v>0.78291089531485192</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.79899212219680571</v>
+        <v>0.78829622351933926</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
+        <v>0.79899212219680571</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
         <v>0.7991745633256403</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3">
+        <v>0.75802064683250103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4">
+        <v>0.77700659022513396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.77578796561604502</v>
       </c>
@@ -656,20 +708,26 @@
       <c r="P6">
         <v>0.95805921052631504</v>
       </c>
+      <c r="Q6">
+        <v>0.96916608269096005</v>
+      </c>
       <c r="R6">
+        <v>0.96015180265654598</v>
+      </c>
+      <c r="T6">
         <v>0.77472984206151196</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.79358874120406497</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.81035598705501599</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.76633986928104503</v>
       </c>
@@ -712,20 +770,26 @@
       <c r="P7">
         <v>0.947286821705426</v>
       </c>
+      <c r="Q7">
+        <v>0.95191585274229895</v>
+      </c>
       <c r="R7">
+        <v>0.95298068849706097</v>
+      </c>
+      <c r="T7">
         <v>0.79154929577464705</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.78832630098452805</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.79017543859649098</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.78571428571428503</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.75807609475951099</v>
       </c>
@@ -768,20 +832,26 @@
       <c r="P8">
         <v>0.94939271255060698</v>
       </c>
+      <c r="Q8">
+        <v>0.95159967186218197</v>
+      </c>
       <c r="R8">
+        <v>0.96096654275092896</v>
+      </c>
+      <c r="T8">
         <v>0.78105590062111796</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.78597785977859702</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.81803921568627402</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.77734976887519203</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.772332015810276</v>
       </c>
@@ -824,20 +894,26 @@
       <c r="P9">
         <v>0.95169491525423699</v>
       </c>
+      <c r="Q9">
+        <v>0.96962962962962895</v>
+      </c>
       <c r="R9">
+        <v>0.965742251223491</v>
+      </c>
+      <c r="T9">
         <v>0.76114649681528601</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.79107981220657198</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.78896551724137898</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.81284916201117297</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.77627840909090895</v>
       </c>
@@ -880,20 +956,26 @@
       <c r="P10">
         <v>0.95820433436532504</v>
       </c>
+      <c r="Q10">
+        <v>0.95888157894736803</v>
+      </c>
       <c r="R10">
+        <v>0.95502008032128505</v>
+      </c>
+      <c r="T10">
         <v>0.81117021276595702</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.80690876882196605</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.786061588330632</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.79648842777334306</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.76311336717428002</v>
       </c>
@@ -936,20 +1018,26 @@
       <c r="P11">
         <v>0.95854545454545403</v>
       </c>
+      <c r="Q11">
+        <v>0.95600298284861995</v>
+      </c>
       <c r="R11">
+        <v>0.96114195083267195</v>
+      </c>
+      <c r="T11">
         <v>0.77039529015979802</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.78912071535022299</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.79652777777777695</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.80681818181818099</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.81449525452976701</v>
       </c>
@@ -992,20 +1080,26 @@
       <c r="P12">
         <v>0.93998234774933798</v>
       </c>
+      <c r="Q12">
+        <v>0.96172638436482005</v>
+      </c>
       <c r="R12">
+        <v>0.96626506024096304</v>
+      </c>
+      <c r="T12">
         <v>0.77867528271405495</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.80560131795716605</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.795170691090757</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.81718963165074998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.78823529411764703</v>
       </c>
@@ -1048,20 +1142,26 @@
       <c r="P13">
         <v>0.94339622641509402</v>
       </c>
+      <c r="Q13">
+        <v>0.967247386759581</v>
+      </c>
       <c r="R13">
+        <v>0.95818048422597202</v>
+      </c>
+      <c r="T13">
         <v>0.77795527156549504</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.79342004590665605</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.79086366880799397</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.79200652528548099</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.79596774193548303</v>
       </c>
@@ -1104,20 +1204,26 @@
       <c r="P14">
         <v>0.95216049382715995</v>
       </c>
+      <c r="Q14">
+        <v>0.964232488822652</v>
+      </c>
       <c r="R14">
+        <v>0.96431226765799205</v>
+      </c>
+      <c r="T14">
         <v>0.8</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.80461665292662798</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.79957953749124</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.80237430167597701</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.76790633608815395</v>
       </c>
@@ -1160,20 +1266,26 @@
       <c r="P15">
         <v>0.95915161036920604</v>
       </c>
+      <c r="Q15">
+        <v>0.96332518337408302</v>
+      </c>
       <c r="R15">
+        <v>0.96159527326440097</v>
+      </c>
+      <c r="T15">
         <v>0.79508196721311397</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.78198334595003705</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.791885800150263</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.80355819125277905</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.75635276532137496</v>
       </c>
@@ -1216,20 +1328,26 @@
       <c r="P16">
         <v>0.96355932203389805</v>
       </c>
+      <c r="Q16">
+        <v>0.96341463414634099</v>
+      </c>
       <c r="R16">
+        <v>0.96236989591673305</v>
+      </c>
+      <c r="T16">
         <v>0.81484374999999998</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.791536050156739</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.79670722977809505</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.80339588918677396</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.77096273291925399</v>
       </c>
@@ -1272,20 +1390,26 @@
       <c r="P17">
         <v>0.96334185848252296</v>
       </c>
+      <c r="Q17">
+        <v>0.96833216045038695</v>
+      </c>
       <c r="R17">
+        <v>0.97002923976608102</v>
+      </c>
+      <c r="T17">
         <v>0.77378815080789898</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.79497907949790703</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.77563150074294196</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.80103359173126598</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.75619834710743805</v>
       </c>
@@ -1328,20 +1452,26 @@
       <c r="P18">
         <v>0.94540942928039695</v>
       </c>
+      <c r="Q18">
+        <v>0.96200485044462403</v>
+      </c>
       <c r="R18">
+        <v>0.96135646687697096</v>
+      </c>
+      <c r="T18">
         <v>0.76330981398332198</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.78287002253944404</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.80967741935483795</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.82294832826747699</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.77878103837471702</v>
       </c>
@@ -1384,20 +1514,26 @@
       <c r="P19">
         <v>0.95735607675906098</v>
       </c>
+      <c r="Q19">
+        <v>0.95161290322580605</v>
+      </c>
       <c r="R19">
+        <v>0.95935582822085796</v>
+      </c>
+      <c r="T19">
         <v>0.79305019305019298</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.79048349961626996</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.81473829201101899</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.79881154499151097</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.76470588235294101</v>
       </c>
@@ -1440,20 +1576,26 @@
       <c r="P20">
         <v>0.95707070707070696</v>
       </c>
+      <c r="Q20">
+        <v>0.96344435418358998</v>
+      </c>
       <c r="R20">
+        <v>0.97124824684431899</v>
+      </c>
+      <c r="T20">
         <v>0.79750223015165</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.77980852915578702</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.80341880341880301</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.786848072562358</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.77173091458805698</v>
       </c>
@@ -1496,20 +1638,26 @@
       <c r="P21">
         <v>0.94951017332328502</v>
       </c>
+      <c r="Q21">
+        <v>0.96389324960753497</v>
+      </c>
       <c r="R21">
+        <v>0.973363774733637</v>
+      </c>
+      <c r="T21">
         <v>0.78642857142857103</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.79342327150084302</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.80306698950766697</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.78702892199824703</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.75629043853342903</v>
       </c>
@@ -1552,20 +1700,26 @@
       <c r="P22">
         <v>0.96279422930903502</v>
       </c>
+      <c r="Q22">
+        <v>0.95683453237409999</v>
+      </c>
       <c r="R22">
+        <v>0.94564408041697601</v>
+      </c>
+      <c r="T22">
         <v>0.77158395649218203</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.77975708502024199</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.79207920792079201</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.80968006562756301</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.77734976887519203</v>
       </c>
@@ -1608,20 +1762,26 @@
       <c r="P23">
         <v>0.94420963651732803</v>
       </c>
+      <c r="Q23">
+        <v>0.94678492239467804</v>
+      </c>
       <c r="R23">
+        <v>0.97009202453987697</v>
+      </c>
+      <c r="T23">
         <v>0.75815011372251695</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.79759999999999998</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.81002425222312002</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.795544948289578</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.78026905829596405</v>
       </c>
@@ -1664,20 +1824,26 @@
       <c r="P24">
         <v>0.95187165775400995</v>
       </c>
+      <c r="Q24">
+        <v>0.95652173913043403</v>
+      </c>
       <c r="R24">
+        <v>0.94645669291338497</v>
+      </c>
+      <c r="T24">
         <v>0.79487179487179405</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.80384615384615299</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.77654406662040198</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.80241935483870896</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.77019748653500897</v>
       </c>
@@ -1720,20 +1886,26 @@
       <c r="P25">
         <v>0.95263157894736805</v>
       </c>
+      <c r="Q25">
+        <v>0.95996978851963699</v>
+      </c>
       <c r="R25">
+        <v>0.96259842519685002</v>
+      </c>
+      <c r="T25">
         <v>0.800966962127316</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.79395085066162496</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.80440304826418196</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0.79792332268370603</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.76367461430575001</v>
       </c>
@@ -1776,20 +1948,26 @@
       <c r="P26">
         <v>0.94826311899482596</v>
       </c>
+      <c r="Q26">
+        <v>0.96451104100946305</v>
+      </c>
       <c r="R26">
+        <v>0.96603527106466303</v>
+      </c>
+      <c r="T26">
         <v>0.77805960684844599</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.79433198380566805</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.81595092024539795</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>0.81011730205278498</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.774533657745336</v>
       </c>
@@ -1832,20 +2010,26 @@
       <c r="P27">
         <v>0.95648795648795604</v>
       </c>
+      <c r="Q27">
+        <v>0.95801526717557195</v>
+      </c>
       <c r="R27">
+        <v>0.97009674582233896</v>
+      </c>
+      <c r="T27">
         <v>0.76266061980347699</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.78640776699029102</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.78411719352351505</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>0.77045454545454495</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.77514792899408202</v>
       </c>
@@ -1888,20 +2072,26 @@
       <c r="P28">
         <v>0.95162708883025504</v>
       </c>
+      <c r="Q28">
+        <v>0.95494186046511598</v>
+      </c>
       <c r="R28">
+        <v>0.96267049533381099</v>
+      </c>
+      <c r="T28">
         <v>0.78158295281582901</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.80105900151285903</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.79921259842519599</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>0.79664014146772699</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.75845012366034603</v>
       </c>
@@ -1944,20 +2134,26 @@
       <c r="P29">
         <v>0.95245398773006096</v>
       </c>
+      <c r="Q29">
+        <v>0.96394230769230704</v>
+      </c>
       <c r="R29">
+        <v>0.96623563218390796</v>
+      </c>
+      <c r="T29">
         <v>0.78389830508474501</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>0.780841799709724</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.77170138888888795</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>0.80065897858319601</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.75932203389830499</v>
       </c>
@@ -2000,20 +2196,26 @@
       <c r="P30">
         <v>0.96384720327421503</v>
       </c>
+      <c r="Q30">
+        <v>0.96</v>
+      </c>
       <c r="R30">
+        <v>0.96875</v>
+      </c>
+      <c r="T30">
         <v>0.77981651376146699</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>0.80268681780016704</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.79685039370078703</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>0.790679908326967</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.761345852895148</v>
       </c>
@@ -2056,20 +2258,26 @@
       <c r="P31">
         <v>0.96604046242774499</v>
       </c>
+      <c r="Q31">
+        <v>0.94560669456066904</v>
+      </c>
       <c r="R31">
+        <v>0.96484375</v>
+      </c>
+      <c r="T31">
         <v>0.78792569659442702</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>0.78257933828494197</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.79686137750653796</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>0.79676674364896005</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.77298616761594796</v>
       </c>
@@ -2112,20 +2320,26 @@
       <c r="P32">
         <v>0.94168636721828203</v>
       </c>
+      <c r="Q32">
+        <v>0.96916996047430803</v>
+      </c>
       <c r="R32">
+        <v>0.96359411309062704</v>
+      </c>
+      <c r="T32">
         <v>0.79533073929960996</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>0.79379157427937896</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>0.82314266929651503</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>0.82478295185477501</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.76590730557737596</v>
       </c>
@@ -2168,20 +2382,26 @@
       <c r="P33">
         <v>0.95636094674556205</v>
       </c>
+      <c r="Q33">
+        <v>0.95988329686360296</v>
+      </c>
       <c r="R33">
+        <v>0.96592844974446301</v>
+      </c>
+      <c r="T33">
         <v>0.80013736263736202</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>0.80086206896551704</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>0.82170542635658905</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>0.77221895232489701</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.77777777777777701</v>
       </c>
@@ -2224,20 +2444,26 @@
       <c r="P34">
         <v>0.94295028524857305</v>
       </c>
+      <c r="Q34">
+        <v>0.96487455197132599</v>
+      </c>
       <c r="R34">
+        <v>0.95621959694232095</v>
+      </c>
+      <c r="T34">
         <v>0.77914110429447803</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>0.79490909090909001</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>0.81010452961672397</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>0.83619983619983596</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.77660324171952</v>
       </c>
@@ -2280,20 +2506,26 @@
       <c r="P35">
         <v>0.95929443690637695</v>
       </c>
+      <c r="Q35">
+        <v>0.97104851330203401</v>
+      </c>
       <c r="R35">
+        <v>0.95483288166214997</v>
+      </c>
+      <c r="T35">
         <v>0.80673758865248202</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>0.793495934959349</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>0.79778830963665004</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>0.79206465833945605</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.77235161532682195</v>
       </c>
@@ -2336,20 +2568,26 @@
       <c r="P36">
         <v>0.95007451564828604</v>
       </c>
+      <c r="Q36">
+        <v>0.952380952380952</v>
+      </c>
       <c r="R36">
+        <v>0.95201827875095202</v>
+      </c>
+      <c r="T36">
         <v>0.77463651050080695</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>0.792241379310344</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>0.80798004987531102</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>0.80971659919028305</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.78643803585346805</v>
       </c>
@@ -2392,20 +2630,26 @@
       <c r="P37">
         <v>0.94612546125461205</v>
       </c>
+      <c r="Q37">
+        <v>0.96107506950880395</v>
+      </c>
       <c r="R37">
+        <v>0.95737246680642896</v>
+      </c>
+      <c r="T37">
         <v>0.79133574007220198</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>0.81259370314842505</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>0.7797513321492</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>0.79596412556053797</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.76807980049875302</v>
       </c>
@@ -2448,20 +2692,26 @@
       <c r="P38">
         <v>0.95084485407065999</v>
       </c>
+      <c r="Q38">
+        <v>0.96052631578947301</v>
+      </c>
       <c r="R38">
+        <v>0.94852941176470495</v>
+      </c>
+      <c r="T38">
         <v>0.79463655610444595</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>0.79256080114449201</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>0.82061688311688297</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>0.82874162323157097</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.77683854606931502</v>
       </c>
@@ -2504,20 +2754,26 @@
       <c r="P39">
         <v>0.93400673400673395</v>
       </c>
+      <c r="Q39">
+        <v>0.95470383275261295</v>
+      </c>
       <c r="R39">
+        <v>0.95704057279236199</v>
+      </c>
+      <c r="T39">
         <v>0.792682926829268</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>0.79648048967100205</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>0.79242424242424203</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>0.80081300813008105</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.76923076923076905</v>
       </c>
@@ -2560,20 +2816,26 @@
       <c r="P40">
         <v>0.953574060427413</v>
       </c>
+      <c r="Q40">
+        <v>0.95984251968503898</v>
+      </c>
       <c r="R40">
+        <v>0.93916913946587499</v>
+      </c>
+      <c r="T40">
         <v>0.75437317784256497</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>0.77794226498889696</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>0.79169811320754702</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <v>0.79745942131263203</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.77337662337662305</v>
       </c>
@@ -2616,20 +2878,26 @@
       <c r="P41">
         <v>0.92483894058697202</v>
       </c>
+      <c r="Q41">
+        <v>0.96858168761220798</v>
+      </c>
       <c r="R41">
+        <v>0.97411003236245897</v>
+      </c>
+      <c r="T41">
         <v>0.79084158415841499</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>0.75762859633827295</v>
       </c>
-      <c r="V41">
+      <c r="X41">
         <v>0.78349735049205105</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <v>0.82168106834249799</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.78697806086341104</v>
       </c>
@@ -2672,20 +2940,26 @@
       <c r="P42">
         <v>0.95900439238653001</v>
       </c>
+      <c r="Q42">
+        <v>0.96656534954407203</v>
+      </c>
       <c r="R42">
+        <v>0.95728813559322001</v>
+      </c>
+      <c r="T42">
         <v>0.789043336058871</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>0.77822257806244999</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <v>0.79024034959941702</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <v>0.79612992398064897</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.75620567375886505</v>
       </c>
@@ -2728,20 +3002,26 @@
       <c r="P43">
         <v>0.955852842809364</v>
       </c>
+      <c r="Q43">
+        <v>0.95679999999999998</v>
+      </c>
       <c r="R43">
+        <v>0.95464362850971896</v>
+      </c>
+      <c r="T43">
         <v>0.797912005965697</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>0.77170658682634696</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <v>0.80687637161667802</v>
       </c>
-      <c r="X43">
+      <c r="Z43">
         <v>0.78880597014925302</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.76618122977346204</v>
       </c>
@@ -2784,20 +3064,26 @@
       <c r="P44">
         <v>0.95057034220532299</v>
       </c>
+      <c r="Q44">
+        <v>0.96536796536796499</v>
+      </c>
       <c r="R44">
+        <v>0.96679536679536604</v>
+      </c>
+      <c r="T44">
         <v>0.80358598207008902</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>0.79204466154919695</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <v>0.79350033852403501</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <v>0.81995812979762706</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.75149253731343202</v>
       </c>
@@ -2840,20 +3126,26 @@
       <c r="P45">
         <v>0.95688991531947598</v>
       </c>
+      <c r="Q45">
+        <v>0.95645530939648504</v>
+      </c>
       <c r="R45">
+        <v>0.959403479701739</v>
+      </c>
+      <c r="T45">
         <v>0.78993610223642097</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>0.78248783877692796</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <v>0.78293289146644496</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <v>0.78628738147337696</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.77600607441154101</v>
       </c>
@@ -2896,20 +3188,26 @@
       <c r="P46">
         <v>0.95378486055776801</v>
       </c>
+      <c r="Q46">
+        <v>0.96095617529880395</v>
+      </c>
       <c r="R46">
+        <v>0.95305951383067899</v>
+      </c>
+      <c r="T46">
         <v>0.80043227665705996</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>0.77489177489177397</v>
       </c>
-      <c r="V46">
+      <c r="X46">
         <v>0.80495123780945199</v>
       </c>
-      <c r="X46">
+      <c r="Z46">
         <v>0.80462184873949505</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.80335365853658502</v>
       </c>
@@ -2952,20 +3250,26 @@
       <c r="P47">
         <v>0.95723930982745598</v>
       </c>
+      <c r="Q47">
+        <v>0.96567862714508501</v>
+      </c>
       <c r="R47">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="T47">
         <v>0.77701005025125602</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>0.78072289156626495</v>
       </c>
-      <c r="V47">
+      <c r="X47">
         <v>0.79245283018867896</v>
       </c>
-      <c r="X47">
+      <c r="Z47">
         <v>0.80998613037447897</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.78241619228336501</v>
       </c>
@@ -3008,20 +3312,26 @@
       <c r="P48">
         <v>0.959537572254335</v>
       </c>
+      <c r="Q48">
+        <v>0.97067039106145203</v>
+      </c>
       <c r="R48">
+        <v>0.96820083682008296</v>
+      </c>
+      <c r="T48">
         <v>0.77624084621643596</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>0.77521423862887195</v>
       </c>
-      <c r="V48">
+      <c r="X48">
         <v>0.80133000831255197</v>
       </c>
-      <c r="X48">
+      <c r="Z48">
         <v>0.80149253731343195</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.77570850202429098</v>
       </c>
@@ -3064,20 +3374,26 @@
       <c r="P49">
         <v>0.95765472312703503</v>
       </c>
+      <c r="Q49">
+        <v>0.95712401055408902</v>
+      </c>
       <c r="R49">
+        <v>0.96296296296296202</v>
+      </c>
+      <c r="T49">
         <v>0.80610687022900696</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>0.77769679300291505</v>
       </c>
-      <c r="V49">
+      <c r="X49">
         <v>0.810147299509001</v>
       </c>
-      <c r="X49">
+      <c r="Z49">
         <v>0.79984051036682602</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.73448017950635702</v>
       </c>
@@ -3120,20 +3436,26 @@
       <c r="P50">
         <v>0.95098756400877804</v>
       </c>
+      <c r="Q50">
+        <v>0.95856353591160204</v>
+      </c>
       <c r="R50">
+        <v>0.949592290585619</v>
+      </c>
+      <c r="T50">
         <v>0.79372549019607797</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>0.78236695790309696</v>
       </c>
-      <c r="V50">
+      <c r="X50">
         <v>0.78627145085803396</v>
       </c>
-      <c r="X50">
+      <c r="Z50">
         <v>0.78884462151394397</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.768325791855203</v>
       </c>
@@ -3176,20 +3498,26 @@
       <c r="P51">
         <v>0.94419306184011997</v>
       </c>
+      <c r="Q51">
+        <v>0.96309696092619301</v>
+      </c>
       <c r="R51">
+        <v>0.96071904127829499</v>
+      </c>
+      <c r="T51">
         <v>0.78747940691927498</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>0.77107279693486497</v>
       </c>
-      <c r="V51">
+      <c r="X51">
         <v>0.80297107114933497</v>
       </c>
-      <c r="X51">
+      <c r="Z51">
         <v>0.80893952673093705</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.78566359119943197</v>
       </c>
@@ -3232,20 +3560,26 @@
       <c r="P52">
         <v>0.95165189363416602</v>
       </c>
+      <c r="Q52">
+        <v>0.95544554455445496</v>
+      </c>
       <c r="R52">
+        <v>0.96010818120351504</v>
+      </c>
+      <c r="T52">
         <v>0.77355623100303905</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>0.79881266490765102</v>
       </c>
-      <c r="V52">
+      <c r="X52">
         <v>0.80031570639305405</v>
       </c>
-      <c r="X52">
+      <c r="Z52">
         <v>0.79360243716679302</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.79148629148629102</v>
       </c>
@@ -3288,20 +3622,26 @@
       <c r="P53">
         <v>0.95776892430278804</v>
       </c>
+      <c r="Q53">
+        <v>0.95742904841402299</v>
+      </c>
       <c r="R53">
+        <v>0.952185792349726</v>
+      </c>
+      <c r="T53">
         <v>0.76255707762557001</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>0.80342516753536797</v>
       </c>
-      <c r="V53">
+      <c r="X53">
         <v>0.793831168831168</v>
       </c>
-      <c r="X53">
+      <c r="Z53">
         <v>0.80371567043618697</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.77845117845117795</v>
       </c>
@@ -3344,20 +3684,26 @@
       <c r="P54">
         <v>0.95853489979267403</v>
       </c>
+      <c r="Q54">
+        <v>0.95706028075970195</v>
+      </c>
       <c r="R54">
+        <v>0.96730632551527995</v>
+      </c>
+      <c r="T54">
         <v>0.77622377622377603</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <v>0.79602750190985405</v>
       </c>
-      <c r="V54">
+      <c r="X54">
         <v>0.80437956204379502</v>
       </c>
-      <c r="X54">
+      <c r="Z54">
         <v>0.81444164567590205</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.78310104529616698</v>
       </c>
@@ -3400,20 +3746,26 @@
       <c r="P55">
         <v>0.96314102564102499</v>
       </c>
+      <c r="Q55">
+        <v>0.95775729646697305</v>
+      </c>
       <c r="R55">
+        <v>0.96487119437939095</v>
+      </c>
+      <c r="T55">
         <v>0.78208744710860301</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <v>0.77830940988835695</v>
       </c>
-      <c r="V55">
+      <c r="X55">
         <v>0.80701754385964897</v>
       </c>
-      <c r="X55">
+      <c r="Z55">
         <v>0.79585326953748003</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.78531073446327604</v>
       </c>
@@ -3456,20 +3808,26 @@
       <c r="P56">
         <v>0.94616419919246297</v>
       </c>
+      <c r="Q56">
+        <v>0.96468279921517297</v>
+      </c>
       <c r="R56">
+        <v>0.96412213740457997</v>
+      </c>
+      <c r="T56">
         <v>0.77622377622377603</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <v>0.79954093343534804</v>
       </c>
-      <c r="V56">
+      <c r="X56">
         <v>0.80623420387531597</v>
       </c>
-      <c r="X56">
+      <c r="Z56">
         <v>0.80368532955350802</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.75260208166533205</v>
       </c>
@@ -3512,20 +3870,26 @@
       <c r="P57">
         <v>0.94205862304021803</v>
       </c>
+      <c r="Q57">
+        <v>0.96079828937989997</v>
+      </c>
       <c r="R57">
+        <v>0.96073717948717896</v>
+      </c>
+      <c r="T57">
         <v>0.77221742881794597</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <v>0.78590785907858995</v>
       </c>
-      <c r="V57">
+      <c r="X57">
         <v>0.78604963112005299</v>
       </c>
-      <c r="X57">
+      <c r="Z57">
         <v>0.80093312597200605</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.78301213418986404</v>
       </c>
@@ -3568,20 +3932,26 @@
       <c r="P58">
         <v>0.94666666666666599</v>
       </c>
+      <c r="Q58">
+        <v>0.95506473724295504</v>
+      </c>
       <c r="R58">
+        <v>0.92122719734659997</v>
+      </c>
+      <c r="T58">
         <v>0.76320132013201303</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <v>0.78188976377952701</v>
       </c>
-      <c r="V58">
+      <c r="X58">
         <v>0.79125780553077596</v>
       </c>
-      <c r="X58">
+      <c r="Z58">
         <v>0.75300721732157105</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.74614820249449698</v>
       </c>
@@ -3624,20 +3994,26 @@
       <c r="P59">
         <v>0.95949367088607596</v>
       </c>
+      <c r="Q59">
+        <v>0.94794094794094796</v>
+      </c>
       <c r="R59">
+        <v>0.95916666666666595</v>
+      </c>
+      <c r="T59">
         <v>0.79668674698795106</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <v>0.80540540540540495</v>
       </c>
-      <c r="V59">
+      <c r="X59">
         <v>0.78683127572016398</v>
       </c>
-      <c r="X59">
+      <c r="Z59">
         <v>0.77509727626459102</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.78817733990147698</v>
       </c>
@@ -3680,20 +4056,26 @@
       <c r="P60">
         <v>0.94862248696947105</v>
       </c>
+      <c r="Q60">
+        <v>0.963309352517985</v>
+      </c>
       <c r="R60">
+        <v>0.96352101506740595</v>
+      </c>
+      <c r="T60">
         <v>0.78318219291014002</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <v>0.78555472822040195</v>
       </c>
-      <c r="V60">
+      <c r="X60">
         <v>0.77905944986690301</v>
       </c>
-      <c r="X60">
+      <c r="Z60">
         <v>0.79711096520026203</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.76366694701429705</v>
       </c>
@@ -3736,20 +4118,26 @@
       <c r="P61">
         <v>0.94912680334092603</v>
       </c>
+      <c r="Q61">
+        <v>0.94965675057208199</v>
+      </c>
       <c r="R61">
+        <v>0.954113924050632</v>
+      </c>
+      <c r="T61">
         <v>0.77276595744680798</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <v>0.76781933662667601</v>
       </c>
-      <c r="V61">
+      <c r="X61">
         <v>0.79702602230483199</v>
       </c>
-      <c r="X61">
+      <c r="Z61">
         <v>0.806347150259067</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.77588757396449703</v>
       </c>
@@ -3792,20 +4180,26 @@
       <c r="P62">
         <v>0.96339677891654396</v>
       </c>
+      <c r="Q62">
+        <v>0.97085889570552097</v>
+      </c>
       <c r="R62">
+        <v>0.97437774524158105</v>
+      </c>
+      <c r="T62">
         <v>0.79394930498773497</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <v>0.79297458893871398</v>
       </c>
-      <c r="V62">
+      <c r="X62">
         <v>0.789430222956234</v>
       </c>
-      <c r="X62">
+      <c r="Z62">
         <v>0.76928191489361697</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.74274193548387102</v>
       </c>
@@ -3848,20 +4242,26 @@
       <c r="P63">
         <v>0.94548063127690096</v>
       </c>
+      <c r="Q63">
+        <v>0.96015325670497997</v>
+      </c>
       <c r="R63">
+        <v>0.96326230712711203</v>
+      </c>
+      <c r="T63">
         <v>0.78057553956834502</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <v>0.76545454545454505</v>
       </c>
-      <c r="V63">
+      <c r="X63">
         <v>0.80828651685393205</v>
       </c>
-      <c r="X63">
+      <c r="Z63">
         <v>0.80171740827478499</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.75789473684210495</v>
       </c>
@@ -3904,20 +4304,26 @@
       <c r="P64">
         <v>0.94578815679733097</v>
       </c>
+      <c r="Q64">
+        <v>0.96434494195688203</v>
+      </c>
       <c r="R64">
+        <v>0.95881895881895796</v>
+      </c>
+      <c r="T64">
         <v>0.78792038435140699</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <v>0.81034482758620596</v>
       </c>
-      <c r="V64">
+      <c r="X64">
         <v>0.82696177062374199</v>
       </c>
-      <c r="X64">
+      <c r="Z64">
         <v>0.80687397708674302</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.76880443388756903</v>
       </c>
@@ -3960,20 +4366,26 @@
       <c r="P65">
         <v>0.94660194174757195</v>
       </c>
+      <c r="Q65">
+        <v>0.95031055900621098</v>
+      </c>
       <c r="R65">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="T65">
         <v>0.77565632458233802</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <v>0.76858237547892705</v>
       </c>
-      <c r="V65">
+      <c r="X65">
         <v>0.80816640986132504</v>
       </c>
-      <c r="X65">
+      <c r="Z65">
         <v>0.79146919431279605</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.769064748201438</v>
       </c>
@@ -4016,20 +4428,26 @@
       <c r="P66">
         <v>0.95475113122171895</v>
       </c>
+      <c r="Q66">
+        <v>0.95007235890014397</v>
+      </c>
       <c r="R66">
+        <v>0.95547945205479401</v>
+      </c>
+      <c r="T66">
         <v>0.77915451895043697</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <v>0.80690737833594905</v>
       </c>
-      <c r="V66">
+      <c r="X66">
         <v>0.78989751098096606</v>
       </c>
-      <c r="X66">
+      <c r="Z66">
         <v>0.79176755447941805</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.76419213973799105</v>
       </c>
@@ -4072,20 +4490,26 @@
       <c r="P67">
         <v>0.95271317829457303</v>
       </c>
+      <c r="Q67">
+        <v>0.94718058529621696</v>
+      </c>
       <c r="R67">
+        <v>0.96064257028112399</v>
+      </c>
+      <c r="T67">
         <v>0.78352941176470503</v>
       </c>
-      <c r="T67">
+      <c r="V67">
         <v>0.780968006562756</v>
       </c>
-      <c r="V67">
+      <c r="X67">
         <v>0.78656716417910399</v>
       </c>
-      <c r="X67">
+      <c r="Z67">
         <v>0.79927272727272702</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.767143933685003</v>
       </c>
@@ -4128,20 +4552,26 @@
       <c r="P68">
         <v>0.94996265870052199</v>
       </c>
+      <c r="Q68">
+        <v>0.96905660377358405</v>
+      </c>
       <c r="R68">
+        <v>0.97137014314928405</v>
+      </c>
+      <c r="T68">
         <v>0.77811782708492705</v>
       </c>
-      <c r="T68">
+      <c r="V68">
         <v>0.78236529041287595</v>
       </c>
-      <c r="V68">
+      <c r="X68">
         <v>0.79720853858784801</v>
       </c>
-      <c r="X68">
+      <c r="Z68">
         <v>0.81570247933884299</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.75093214019388499</v>
       </c>
@@ -4184,20 +4614,26 @@
       <c r="P69">
         <v>0.947194719471947</v>
       </c>
+      <c r="Q69">
+        <v>0.96440397350993301</v>
+      </c>
       <c r="R69">
+        <v>0.95684523809523803</v>
+      </c>
+      <c r="T69">
         <v>0.76728624535315904</v>
       </c>
-      <c r="T69">
+      <c r="V69">
         <v>0.78753753753753697</v>
       </c>
-      <c r="V69">
+      <c r="X69">
         <v>0.79009009009009001</v>
       </c>
-      <c r="X69">
+      <c r="Z69">
         <v>0.81113801452784495</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.75508720930232498</v>
       </c>
@@ -4240,20 +4676,26 @@
       <c r="P70">
         <v>0.96031128404669197</v>
       </c>
+      <c r="Q70">
+        <v>0.95968992248062002</v>
+      </c>
       <c r="R70">
+        <v>0.96726190476190399</v>
+      </c>
+      <c r="T70">
         <v>0.75990099009900902</v>
       </c>
-      <c r="T70">
+      <c r="V70">
         <v>0.79810495626822098</v>
       </c>
-      <c r="V70">
+      <c r="X70">
         <v>0.816593886462882</v>
       </c>
-      <c r="X70">
+      <c r="Z70">
         <v>0.80015612802498004</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.77702243371855795</v>
       </c>
@@ -4296,20 +4738,26 @@
       <c r="P71">
         <v>0.94950911640953695</v>
       </c>
+      <c r="Q71">
+        <v>0.96918085969180801</v>
+      </c>
       <c r="R71">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="T71">
         <v>0.78581871345029197</v>
       </c>
-      <c r="T71">
+      <c r="V71">
         <v>0.78606557377049102</v>
       </c>
-      <c r="V71">
+      <c r="X71">
         <v>0.78533568904593598</v>
       </c>
-      <c r="X71">
+      <c r="Z71">
         <v>0.82030620467365001</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.77318718381112905</v>
       </c>
@@ -4352,20 +4800,26 @@
       <c r="P72">
         <v>0.95050215208034405</v>
       </c>
+      <c r="Q72">
+        <v>0.962092494313874</v>
+      </c>
       <c r="R72">
+        <v>0.96349319971367198</v>
+      </c>
+      <c r="T72">
         <v>0.78828125000000004</v>
       </c>
-      <c r="T72">
+      <c r="V72">
         <v>0.78790199081163803</v>
       </c>
-      <c r="V72">
+      <c r="X72">
         <v>0.78102766798418899</v>
       </c>
-      <c r="X72">
+      <c r="Z72">
         <v>0.795886075949367</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.75448613376835205</v>
       </c>
@@ -4408,20 +4862,26 @@
       <c r="P73">
         <v>0.96111580726965296</v>
       </c>
+      <c r="Q73">
+        <v>0.96026986506746603</v>
+      </c>
       <c r="R73">
+        <v>0.95667365478686195</v>
+      </c>
+      <c r="T73">
         <v>0.77486077963404898</v>
       </c>
-      <c r="T73">
+      <c r="V73">
         <v>0.77567975830815705</v>
       </c>
-      <c r="V73">
+      <c r="X73">
         <v>0.79779158040027598</v>
       </c>
-      <c r="X73">
+      <c r="Z73">
         <v>0.79399141630901204</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.76934865900383098</v>
       </c>
@@ -4464,20 +4924,26 @@
       <c r="P74">
         <v>0.95258620689655105</v>
       </c>
+      <c r="Q74">
+        <v>0.95901639344262202</v>
+      </c>
       <c r="R74">
+        <v>0.96214988644965904</v>
+      </c>
+      <c r="T74">
         <v>0.775524981897176</v>
       </c>
-      <c r="T74">
+      <c r="V74">
         <v>0.78117827084927305</v>
       </c>
-      <c r="V74">
+      <c r="X74">
         <v>0.78120184899845901</v>
       </c>
-      <c r="X74">
+      <c r="Z74">
         <v>0.81608391608391595</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.77360066833750996</v>
       </c>
@@ -4520,20 +4986,26 @@
       <c r="P75">
         <v>0.951686417502278</v>
       </c>
+      <c r="Q75">
+        <v>0.92962356792143996</v>
+      </c>
       <c r="R75">
+        <v>0.96388650042992197</v>
+      </c>
+      <c r="T75">
         <v>0.76766304347825998</v>
       </c>
-      <c r="T75">
+      <c r="V75">
         <v>0.77339520494972902</v>
       </c>
-      <c r="V75">
+      <c r="X75">
         <v>0.80967486122125298</v>
       </c>
-      <c r="X75">
+      <c r="Z75">
         <v>0.795366795366795</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.77590007347538503</v>
       </c>
@@ -4576,20 +5048,26 @@
       <c r="P76">
         <v>0.94666666666666599</v>
       </c>
+      <c r="Q76">
+        <v>0.96347941567064999</v>
+      </c>
       <c r="R76">
+        <v>0.96345029239766</v>
+      </c>
+      <c r="T76">
         <v>0.78109854604200302</v>
       </c>
-      <c r="T76">
+      <c r="V76">
         <v>0.78194338179035905</v>
       </c>
-      <c r="V76">
+      <c r="X76">
         <v>0.80930232558139503</v>
       </c>
-      <c r="X76">
+      <c r="Z76">
         <v>0.82045277127244298</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0.76859504132231404</v>
       </c>
@@ -4632,20 +5110,26 @@
       <c r="P77">
         <v>0.95208333333333295</v>
       </c>
+      <c r="Q77">
+        <v>0.95408163265306101</v>
+      </c>
       <c r="R77">
+        <v>0.96362229102167096</v>
+      </c>
+      <c r="T77">
         <v>0.78462770216172895</v>
       </c>
-      <c r="T77">
+      <c r="V77">
         <v>0.8</v>
       </c>
-      <c r="V77">
+      <c r="X77">
         <v>0.82764654418197703</v>
       </c>
-      <c r="X77">
+      <c r="Z77">
         <v>0.79534883720930205</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.78540145985401399</v>
       </c>
@@ -4688,20 +5172,26 @@
       <c r="P78">
         <v>0.95066562255285803</v>
       </c>
+      <c r="Q78">
+        <v>0.95916666666666595</v>
+      </c>
       <c r="R78">
+        <v>0.952060555088309</v>
+      </c>
+      <c r="T78">
         <v>0.76226158038147096</v>
       </c>
-      <c r="T78">
+      <c r="V78">
         <v>0.81639344262294999</v>
       </c>
-      <c r="V78">
+      <c r="X78">
         <v>0.80283793876026799</v>
       </c>
-      <c r="X78">
+      <c r="Z78">
         <v>0.81090589270008795</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0.78710644677661101</v>
       </c>
@@ -4744,20 +5234,26 @@
       <c r="P79">
         <v>0.95584988962472395</v>
       </c>
+      <c r="Q79">
+        <v>0.96127033307513499</v>
+      </c>
       <c r="R79">
+        <v>0.96281951975212998</v>
+      </c>
+      <c r="T79">
         <v>0.78887923544743699</v>
       </c>
-      <c r="T79">
+      <c r="V79">
         <v>0.78818443804034499</v>
       </c>
-      <c r="V79">
+      <c r="X79">
         <v>0.78716744913928005</v>
       </c>
-      <c r="X79">
+      <c r="Z79">
         <v>0.77905308464849299</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0.786737000753579</v>
       </c>
@@ -4800,20 +5296,26 @@
       <c r="P80">
         <v>0.96223316912972001</v>
       </c>
+      <c r="Q80">
+        <v>0.96128500823723195</v>
+      </c>
       <c r="R80">
+        <v>0.95629370629370603</v>
+      </c>
+      <c r="T80">
         <v>0.79588728103579498</v>
       </c>
-      <c r="T80">
+      <c r="V80">
         <v>0.778964667214461</v>
       </c>
-      <c r="V80">
+      <c r="X80">
         <v>0.81395348837209303</v>
       </c>
-      <c r="X80">
+      <c r="Z80">
         <v>0.78878648233486903</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0.75040783034257696</v>
       </c>
@@ -4856,20 +5358,26 @@
       <c r="P81">
         <v>0.95121951219512102</v>
       </c>
+      <c r="Q81">
+        <v>0.96394984326018796</v>
+      </c>
       <c r="R81">
+        <v>0.959611069558713</v>
+      </c>
+      <c r="T81">
         <v>0.78214285714285703</v>
       </c>
-      <c r="T81">
+      <c r="V81">
         <v>0.78053977272727204</v>
       </c>
-      <c r="V81">
+      <c r="X81">
         <v>0.79895366218236097</v>
       </c>
-      <c r="X81">
+      <c r="Z81">
         <v>0.79829325058184597</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0.748191027496382</v>
       </c>
@@ -4912,20 +5420,26 @@
       <c r="P82">
         <v>0.94033069734004304</v>
       </c>
+      <c r="Q82">
+        <v>0.95813953488372094</v>
+      </c>
       <c r="R82">
+        <v>0.95606183889340901</v>
+      </c>
+      <c r="T82">
         <v>0.75607711651299203</v>
       </c>
-      <c r="T82">
+      <c r="V82">
         <v>0.79618768328445699</v>
       </c>
-      <c r="V82">
+      <c r="X82">
         <v>0.80239943542695802</v>
       </c>
-      <c r="X82">
+      <c r="Z82">
         <v>0.80159362549800806</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.77012448132779998</v>
       </c>
@@ -4968,20 +5482,26 @@
       <c r="P83">
         <v>0.96002906976744096</v>
       </c>
+      <c r="Q83">
+        <v>0.95889387144992499</v>
+      </c>
       <c r="R83">
+        <v>0.96247960848287095</v>
+      </c>
+      <c r="T83">
         <v>0.778964667214461</v>
       </c>
-      <c r="T83">
+      <c r="V83">
         <v>0.78585086042065</v>
       </c>
-      <c r="V83">
+      <c r="X83">
         <v>0.80670785525154398</v>
       </c>
-      <c r="X83">
+      <c r="Z83">
         <v>0.77761304670125997</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0.779089376053962</v>
       </c>
@@ -5024,20 +5544,26 @@
       <c r="P84">
         <v>0.96025952960259497</v>
       </c>
+      <c r="Q84">
+        <v>0.96933560477001701</v>
+      </c>
       <c r="R84">
+        <v>0.96569724086502595</v>
+      </c>
+      <c r="T84">
         <v>0.774752475247524</v>
       </c>
-      <c r="T84">
+      <c r="V84">
         <v>0.80030840400925196</v>
       </c>
-      <c r="V84">
+      <c r="X84">
         <v>0.80067567567567499</v>
       </c>
-      <c r="X84">
+      <c r="Z84">
         <v>0.80949152542372804</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0.75654069767441801</v>
       </c>
@@ -5080,20 +5606,26 @@
       <c r="P85">
         <v>0.94703049759229496</v>
       </c>
+      <c r="Q85">
+        <v>0.95356285028022403</v>
+      </c>
       <c r="R85">
+        <v>0.970964987190435</v>
+      </c>
+      <c r="T85">
         <v>0.81561461794019896</v>
       </c>
-      <c r="T85">
+      <c r="V85">
         <v>0.77786318216756301</v>
       </c>
-      <c r="V85">
+      <c r="X85">
         <v>0.81994459833794997</v>
       </c>
-      <c r="X85">
+      <c r="Z85">
         <v>0.79632352941176399</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0.75846702317290504</v>
       </c>
@@ -5136,20 +5668,26 @@
       <c r="P86">
         <v>0.95620437956204296</v>
       </c>
+      <c r="Q86">
+        <v>0.95997239475500296</v>
+      </c>
       <c r="R86">
+        <v>0.96385542168674698</v>
+      </c>
+      <c r="T86">
         <v>0.77246790299571999</v>
       </c>
-      <c r="T86">
+      <c r="V86">
         <v>0.76555023923444898</v>
       </c>
-      <c r="V86">
+      <c r="X86">
         <v>0.79985905567300897</v>
       </c>
-      <c r="X86">
+      <c r="Z86">
         <v>0.79925373134328304</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0.78870967741935405</v>
       </c>
@@ -5192,20 +5730,26 @@
       <c r="P87">
         <v>0.95295794725588001</v>
       </c>
+      <c r="Q87">
+        <v>0.965718453683442</v>
+      </c>
       <c r="R87">
+        <v>0.96069182389937102</v>
+      </c>
+      <c r="T87">
         <v>0.80498533724340104</v>
       </c>
-      <c r="T87">
+      <c r="V87">
         <v>0.78273809523809501</v>
       </c>
-      <c r="V87">
+      <c r="X87">
         <v>0.806055646481178</v>
       </c>
-      <c r="X87">
+      <c r="Z87">
         <v>0.81089036055923402</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0.75562451512800599</v>
       </c>
@@ -5248,20 +5792,26 @@
       <c r="P88">
         <v>0.96276112624886401</v>
       </c>
+      <c r="Q88">
+        <v>0.96819457436856804</v>
+      </c>
       <c r="R88">
+        <v>0.96128071481757205</v>
+      </c>
+      <c r="T88">
         <v>0.780864197530864</v>
       </c>
-      <c r="T88">
+      <c r="V88">
         <v>0.79493670886075896</v>
       </c>
-      <c r="V88">
+      <c r="X88">
         <v>0.80249804839968697</v>
       </c>
-      <c r="X88">
+      <c r="Z88">
         <v>0.79445727482678896</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0.779014308426073</v>
       </c>
@@ -5304,20 +5854,26 @@
       <c r="P89">
         <v>0.94387351778656103</v>
       </c>
+      <c r="Q89">
+        <v>0.94533762057877802</v>
+      </c>
       <c r="R89">
+        <v>0.968724939855653</v>
+      </c>
+      <c r="T89">
         <v>0.78194816800714895</v>
       </c>
-      <c r="T89">
+      <c r="V89">
         <v>0.79411764705882304</v>
       </c>
-      <c r="V89">
+      <c r="X89">
         <v>0.80647840531561399</v>
       </c>
-      <c r="X89">
+      <c r="Z89">
         <v>0.802050473186119</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0.78315132605304205</v>
       </c>
@@ -5360,20 +5916,26 @@
       <c r="P90">
         <v>0.95424354243542397</v>
       </c>
+      <c r="Q90">
+        <v>0.95221363316936003</v>
+      </c>
       <c r="R90">
+        <v>0.95380241648898301</v>
+      </c>
+      <c r="T90">
         <v>0.78895184135977303</v>
       </c>
-      <c r="T90">
+      <c r="V90">
         <v>0.77447425670775905</v>
       </c>
-      <c r="V90">
+      <c r="X90">
         <v>0.80042313117066199</v>
       </c>
-      <c r="X90">
+      <c r="Z90">
         <v>0.80569758948137304</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0.79807692307692302</v>
       </c>
@@ -5416,20 +5978,26 @@
       <c r="P91">
         <v>0.94717800289435605</v>
       </c>
+      <c r="Q91">
+        <v>0.96454948301329302</v>
+      </c>
       <c r="R91">
+        <v>0.96072727272727199</v>
+      </c>
+      <c r="T91">
         <v>0.78442280945757903</v>
       </c>
-      <c r="T91">
+      <c r="V91">
         <v>0.80632716049382702</v>
       </c>
-      <c r="V91">
+      <c r="X91">
         <v>0.791139240506329</v>
       </c>
-      <c r="X91">
+      <c r="Z91">
         <v>0.80970149253731305</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0.785116279069767</v>
       </c>
@@ -5472,20 +6040,26 @@
       <c r="P92">
         <v>0.95299837925445696</v>
       </c>
+      <c r="Q92">
+        <v>0.95885093167701796</v>
+      </c>
       <c r="R92">
+        <v>0.97570532915360497</v>
+      </c>
+      <c r="T92">
         <v>0.78744326777609597</v>
       </c>
-      <c r="T92">
+      <c r="V92">
         <v>0.78117998506347996</v>
       </c>
-      <c r="V92">
+      <c r="X92">
         <v>0.79273827534039298</v>
       </c>
-      <c r="X92">
+      <c r="Z92">
         <v>0.77236421725239601</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0.76651305683563697</v>
       </c>
@@ -5528,20 +6102,26 @@
       <c r="P93">
         <v>0.95846905537459204</v>
       </c>
+      <c r="Q93">
+        <v>0.96461949265687497</v>
+      </c>
       <c r="R93">
+        <v>0.95980926430517699</v>
+      </c>
+      <c r="T93">
         <v>0.78611332801276901</v>
       </c>
-      <c r="T93">
+      <c r="V93">
         <v>0.79026845637583898</v>
       </c>
-      <c r="V93">
+      <c r="X93">
         <v>0.82240853658536495</v>
       </c>
-      <c r="X93">
+      <c r="Z93">
         <v>0.78035143769967996</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0.774104683195592</v>
       </c>
@@ -5584,20 +6164,26 @@
       <c r="P94">
         <v>0.94365079365079296</v>
       </c>
+      <c r="Q94">
+        <v>0.94357366771159801</v>
+      </c>
       <c r="R94">
+        <v>0.95081967213114704</v>
+      </c>
+      <c r="T94">
         <v>0.78607686729514104</v>
       </c>
-      <c r="T94">
+      <c r="V94">
         <v>0.77869529314616004</v>
       </c>
-      <c r="V94">
+      <c r="X94">
         <v>0.80349013657056101</v>
       </c>
-      <c r="X94">
+      <c r="Z94">
         <v>0.81304006284367603</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0.75636363636363602</v>
       </c>
@@ -5640,20 +6226,26 @@
       <c r="P95">
         <v>0.96104815864022597</v>
       </c>
+      <c r="Q95">
+        <v>0.96066433566433496</v>
+      </c>
       <c r="R95">
+        <v>0.96006796941376304</v>
+      </c>
+      <c r="T95">
         <v>0.78756157635467905</v>
       </c>
-      <c r="T95">
+      <c r="V95">
         <v>0.78058103975535098</v>
       </c>
-      <c r="V95">
+      <c r="X95">
         <v>0.76934306569343003</v>
       </c>
-      <c r="X95">
+      <c r="Z95">
         <v>0.80059746079163496</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0.76631578947368395</v>
       </c>
@@ -5696,20 +6288,26 @@
       <c r="P96">
         <v>0.94683544303797396</v>
       </c>
+      <c r="Q96">
+        <v>0.95365278868813796</v>
+      </c>
       <c r="R96">
+        <v>0.96236559139784905</v>
+      </c>
+      <c r="T96">
         <v>0.76233552631578905</v>
       </c>
-      <c r="T96">
+      <c r="V96">
         <v>0.78902677988242897</v>
       </c>
-      <c r="V96">
+      <c r="X96">
         <v>0.79915433403805403</v>
       </c>
-      <c r="X96">
+      <c r="Z96">
         <v>0.79190751445086704</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0.76997759522031295</v>
       </c>
@@ -5752,20 +6350,26 @@
       <c r="P97">
         <v>0.95425867507886397</v>
       </c>
+      <c r="Q97">
+        <v>0.96474358974358898</v>
+      </c>
       <c r="R97">
+        <v>0.96707503828483898</v>
+      </c>
+      <c r="T97">
         <v>0.78939507094846895</v>
       </c>
-      <c r="T97">
+      <c r="V97">
         <v>0.78836720392431603</v>
       </c>
-      <c r="V97">
+      <c r="X97">
         <v>0.79357798165137605</v>
       </c>
-      <c r="X97">
+      <c r="Z97">
         <v>0.78767693588676102</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0.77043765483071802</v>
       </c>
@@ -5808,20 +6412,26 @@
       <c r="P98">
         <v>0.96037898363479701</v>
       </c>
+      <c r="Q98">
+        <v>0.962169878658101</v>
+      </c>
       <c r="R98">
+        <v>0.95785440613026795</v>
+      </c>
+      <c r="T98">
         <v>0.78869969040247601</v>
       </c>
-      <c r="T98">
+      <c r="V98">
         <v>0.77503852080123203</v>
       </c>
-      <c r="V98">
+      <c r="X98">
         <v>0.80548414738646101</v>
       </c>
-      <c r="X98">
+      <c r="Z98">
         <v>0.791266375545851</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0.76803394625176802</v>
       </c>
@@ -5864,20 +6474,26 @@
       <c r="P99">
         <v>0.95655806182121905</v>
       </c>
+      <c r="Q99">
+        <v>0.95923677363399795</v>
+      </c>
       <c r="R99">
+        <v>0.95202702702702702</v>
+      </c>
+      <c r="T99">
         <v>0.80149501661129496</v>
       </c>
-      <c r="T99">
+      <c r="V99">
         <v>0.79850187265917605</v>
       </c>
-      <c r="V99">
+      <c r="X99">
         <v>0.79953560371516996</v>
       </c>
-      <c r="X99">
+      <c r="Z99">
         <v>0.78668805132317499</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0.786542923433874</v>
       </c>
@@ -5920,20 +6536,26 @@
       <c r="P100">
         <v>0.94329073482428105</v>
       </c>
+      <c r="Q100">
+        <v>0.96009036144578297</v>
+      </c>
       <c r="R100">
+        <v>0.95769230769230695</v>
+      </c>
+      <c r="T100">
         <v>0.77562111801242195</v>
       </c>
-      <c r="T100">
+      <c r="V100">
         <v>0.78576669112252295</v>
       </c>
-      <c r="V100">
+      <c r="X100">
         <v>0.80503597122302095</v>
       </c>
-      <c r="X100">
+      <c r="Z100">
         <v>0.80379285193289496</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0.78470490440565199</v>
       </c>
@@ -5976,20 +6598,26 @@
       <c r="P101">
         <v>0.93294881038211896</v>
       </c>
+      <c r="Q101">
+        <v>0.94499549143372397</v>
+      </c>
       <c r="R101">
+        <v>0.95491803278688503</v>
+      </c>
+      <c r="T101">
         <v>0.771498771498771</v>
       </c>
-      <c r="T101">
+      <c r="V101">
         <v>0.78561549100968098</v>
       </c>
-      <c r="V101">
+      <c r="X101">
         <v>0.81011608623548903</v>
       </c>
-      <c r="X101">
+      <c r="Z101">
         <v>0.79319606087734995</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0.77107501933487999</v>
       </c>
@@ -6032,20 +6660,26 @@
       <c r="P102">
         <v>0.947658402203856</v>
       </c>
+      <c r="Q102">
+        <v>0.96307692307692305</v>
+      </c>
       <c r="R102">
+        <v>0.94152046783625698</v>
+      </c>
+      <c r="T102">
         <v>0.78454680534918197</v>
       </c>
-      <c r="T102">
+      <c r="V102">
         <v>0.79683794466403102</v>
       </c>
-      <c r="V102">
+      <c r="X102">
         <v>0.79912344777209599</v>
       </c>
-      <c r="X102">
+      <c r="Z102">
         <v>0.77743431221019998</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0.76302640970735103</v>
       </c>
@@ -6088,20 +6722,26 @@
       <c r="P103">
         <v>0.95760787282361803</v>
       </c>
+      <c r="Q103">
+        <v>0.95391061452513903</v>
+      </c>
       <c r="R103">
+        <v>0.95726495726495697</v>
+      </c>
+      <c r="T103">
         <v>0.76322020520915501</v>
       </c>
-      <c r="T103">
+      <c r="V103">
         <v>0.80104712041884796</v>
       </c>
-      <c r="V103">
+      <c r="X103">
         <v>0.78493845039826204</v>
       </c>
-      <c r="X103">
+      <c r="Z103">
         <v>0.79381443298969001</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0.75236457437661197</v>
       </c>
@@ -6144,20 +6784,26 @@
       <c r="P104">
         <v>0.95231316725978599</v>
       </c>
+      <c r="Q104">
+        <v>0.96998420221169002</v>
+      </c>
       <c r="R104">
+        <v>0.96350931677018603</v>
+      </c>
+      <c r="T104">
         <v>0.77866880513231695</v>
       </c>
-      <c r="T104">
+      <c r="V104">
         <v>0.77100371747211804</v>
       </c>
-      <c r="V104">
+      <c r="X104">
         <v>0.79012345679012297</v>
       </c>
-      <c r="X104">
+      <c r="Z104">
         <v>0.81655480984340001</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0.79073243647234603</v>
       </c>
@@ -6200,20 +6846,26 @@
       <c r="P105">
         <v>0.95604395604395598</v>
       </c>
+      <c r="Q105">
+        <v>0.96103896103896103</v>
+      </c>
       <c r="R105">
+        <v>0.96243005595523501</v>
+      </c>
+      <c r="T105">
         <v>0.77601156069364097</v>
       </c>
-      <c r="T105">
+      <c r="V105">
         <v>0.77908689248895402</v>
       </c>
-      <c r="V105">
+      <c r="X105">
         <v>0.79631053036125998</v>
       </c>
-      <c r="X105">
+      <c r="Z105">
         <v>0.80300500834724498</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0.76176470588235201</v>
       </c>
@@ -6256,20 +6908,26 @@
       <c r="P106">
         <v>0.96292682926829198</v>
       </c>
+      <c r="Q106">
+        <v>0.95957284515636898</v>
+      </c>
       <c r="R106">
+        <v>0.95771428571428496</v>
+      </c>
+      <c r="T106">
         <v>0.772900763358778</v>
       </c>
-      <c r="T106">
+      <c r="V106">
         <v>0.79665071770334905</v>
       </c>
-      <c r="V106">
+      <c r="X106">
         <v>0.81155303030303005</v>
       </c>
-      <c r="X106">
+      <c r="Z106">
         <v>0.80237154150197598</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0.77027027027026995</v>
       </c>
@@ -6291,8 +6949,11 @@
       <c r="O107">
         <v>0.95006747638326505</v>
       </c>
-    </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0.93937125748502903</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0.75457570715474198</v>
       </c>
@@ -6314,8 +6975,11 @@
       <c r="O108">
         <v>0.94087403598971697</v>
       </c>
-    </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0.96481178396071998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0.76973684210526305</v>
       </c>
@@ -6337,8 +7001,11 @@
       <c r="O109">
         <v>0.94199706314243703</v>
       </c>
-    </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0.95026642984014198</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0.76949384404924703</v>
       </c>
@@ -6360,8 +7027,11 @@
       <c r="O110">
         <v>0.94812450119712599</v>
       </c>
-    </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0.96436525612472102</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0.77823577906018104</v>
       </c>
@@ -6383,8 +7053,11 @@
       <c r="O111">
         <v>0.96638655462184797</v>
       </c>
-    </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>0.96655791190864604</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0.76872427983539005</v>
       </c>
@@ -6406,8 +7079,11 @@
       <c r="O112">
         <v>0.941226575809199</v>
       </c>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>0.96645512239347198</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>0.73756432246998205</v>
       </c>
@@ -6429,8 +7105,11 @@
       <c r="O113">
         <v>0.95048629531388096</v>
       </c>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>0.96623177283192596</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>0.79734513274336205</v>
       </c>
@@ -6452,8 +7131,11 @@
       <c r="O114">
         <v>0.96611721611721602</v>
       </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>0.96034892942109396</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>0.77639235245220195</v>
       </c>
@@ -6475,8 +7157,11 @@
       <c r="O115">
         <v>0.94940202391904305</v>
       </c>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0.95934959349593496</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0.77411764705882302</v>
       </c>
@@ -6498,8 +7183,11 @@
       <c r="O116">
         <v>0.94415584415584397</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0.94732221246707604</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0.76910299003322202</v>
       </c>
@@ -6521,8 +7209,11 @@
       <c r="O117">
         <v>0.95219435736677105</v>
       </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>0.96987087517934001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0.77290836653386397</v>
       </c>
@@ -6544,8 +7235,11 @@
       <c r="O118">
         <v>0.95223654283548098</v>
       </c>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0.94688026981450202</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0.769574944071588</v>
       </c>
@@ -6567,8 +7261,11 @@
       <c r="O119">
         <v>0.95314900153609805</v>
       </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0.96378600823045202</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>0.76737381126554405</v>
       </c>
@@ -6590,8 +7287,11 @@
       <c r="O120">
         <v>0.949796472184531</v>
       </c>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0.96272401433691701</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>0.75643224699828404</v>
       </c>
@@ -6613,8 +7313,11 @@
       <c r="O121">
         <v>0.94239631336405505</v>
       </c>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>0.95106550907655796</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0.78566203365032905</v>
       </c>
@@ -6636,8 +7339,11 @@
       <c r="O122">
         <v>0.950437317784256</v>
       </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0.95127118644067798</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>0.77334397446129199</v>
       </c>
@@ -6659,8 +7365,11 @@
       <c r="O123">
         <v>0.94283536585365801</v>
       </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>0.96003134796238199</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>0.76379690949227297</v>
       </c>
@@ -6682,8 +7391,11 @@
       <c r="O124">
         <v>0.95060790273556195</v>
       </c>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0.95623987034035596</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>0.765163297045101</v>
       </c>
@@ -6705,8 +7417,11 @@
       <c r="O125">
         <v>0.95407503234152602</v>
       </c>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0.96290050590219201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>0.748735244519392</v>
       </c>
@@ -6728,8 +7443,11 @@
       <c r="O126">
         <v>0.95537673738112605</v>
       </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>0.96157205240174604</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>0.77106518282988801</v>
       </c>
@@ -6751,8 +7469,11 @@
       <c r="O127">
         <v>0.95757132406729994</v>
       </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>0.96089790007241105</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>0.78202995008319398</v>
       </c>
@@ -6774,8 +7495,11 @@
       <c r="O128">
         <v>0.962686567164179</v>
       </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>0.96534653465346498</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>0.777032690695725</v>
       </c>
@@ -6797,8 +7521,11 @@
       <c r="O129">
         <v>0.94327390599675798</v>
       </c>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>0.95402298850574696</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>0.75228758169934595</v>
       </c>
@@ -6820,8 +7547,11 @@
       <c r="O130">
         <v>0.952191235059761</v>
       </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0.96027049873203696</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>0.75414781297134204</v>
       </c>
@@ -6843,8 +7573,11 @@
       <c r="O131">
         <v>0.94194756554307102</v>
       </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>0.95937499999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>0.786061588330632</v>
       </c>
@@ -6866,8 +7599,11 @@
       <c r="O132">
         <v>0.93274111675126903</v>
       </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0.96990218209179802</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>0.77338403041825099</v>
       </c>
@@ -6889,8 +7625,11 @@
       <c r="O133">
         <v>0.94394064303379999</v>
       </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0.95631399317406096</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>0.78636741479634198</v>
       </c>
@@ -6912,8 +7651,11 @@
       <c r="O134">
         <v>0.94535131298793396</v>
       </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0.96237337192474603</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>0.77435064935064901</v>
       </c>
@@ -6935,8 +7677,11 @@
       <c r="O135">
         <v>0.95017793594305999</v>
       </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>0.96356589147286797</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>0.75037257824143</v>
       </c>
@@ -6958,8 +7703,11 @@
       <c r="O136">
         <v>0.94988780852655197</v>
       </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0.95597484276729505</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>0.757692307692307</v>
       </c>
@@ -6981,8 +7729,11 @@
       <c r="O137">
         <v>0.94433399602385604</v>
       </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>0.96519524617996599</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>0.75493421052631504</v>
       </c>
@@ -7004,8 +7755,11 @@
       <c r="O138">
         <v>0.94554455445544505</v>
       </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0.95785123966942098</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>0.74525968672712195</v>
       </c>
@@ -7027,8 +7781,11 @@
       <c r="O139">
         <v>0.94327176781002597</v>
       </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>0.96369922212618797</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>0.76033057851239605</v>
       </c>
@@ -7050,8 +7807,11 @@
       <c r="O140">
         <v>0.95019920318725104</v>
       </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>0.96215139442231001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>0.76747967479674795</v>
       </c>
@@ -7073,8 +7833,11 @@
       <c r="O141">
         <v>0.96716417910447705</v>
       </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0.95826645264847499</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>0.78466557911908597</v>
       </c>
@@ -7096,8 +7859,11 @@
       <c r="O142">
         <v>0.95021645021644996</v>
       </c>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0.95062761506276106</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>0.79946524064171098</v>
       </c>
@@ -7119,8 +7885,11 @@
       <c r="O143">
         <v>0.95801199657240699</v>
       </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>0.96621135873472297</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>0.79353233830845704</v>
       </c>
@@ -7142,8 +7911,11 @@
       <c r="O144">
         <v>0.94665766374071503</v>
       </c>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0.95764536970567105</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>0.766404199475065</v>
       </c>
@@ -7165,8 +7937,11 @@
       <c r="O145">
         <v>0.94529686457638396</v>
       </c>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0.96588139723801703</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>0.77067082683307297</v>
       </c>
@@ -7188,8 +7963,11 @@
       <c r="O146">
         <v>0.95013661202185795</v>
       </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0.94912680334092603</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>0.78635990139687695</v>
       </c>
@@ -7211,8 +7989,11 @@
       <c r="O147">
         <v>0.957698815566835</v>
       </c>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0.96532702915681601</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>0.76957163958640995</v>
       </c>
@@ -7234,8 +8015,11 @@
       <c r="O148">
         <v>0.95864661654135297</v>
       </c>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>0.96034892942109396</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>0.75764525993883702</v>
       </c>
@@ -7257,8 +8041,11 @@
       <c r="O149">
         <v>0.95261845386533595</v>
       </c>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0.96764705882352897</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>0.77138531415594203</v>
       </c>
@@ -7280,8 +8067,11 @@
       <c r="O150">
         <v>0.93929961089494096</v>
       </c>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0.961165048543689</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>0.76493108728943304</v>
       </c>
@@ -7303,8 +8093,11 @@
       <c r="O151">
         <v>0.94375963020030795</v>
       </c>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>0.95139442231075699</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>0.78019662921348298</v>
       </c>
@@ -7326,8 +8119,11 @@
       <c r="O152">
         <v>0.95495495495495497</v>
       </c>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0.96072270227808299</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>0.765306122448979</v>
       </c>
@@ -7349,8 +8145,11 @@
       <c r="O153">
         <v>0.95115681233933103</v>
       </c>
-    </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>0.95026525198938905</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>0.76949443016281005</v>
       </c>
@@ -7372,8 +8171,11 @@
       <c r="O154">
         <v>0.95532087733549897</v>
       </c>
-    </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>0.97142857142857097</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>0.76490344248530595</v>
       </c>
@@ -7395,8 +8197,11 @@
       <c r="O155">
         <v>0.96019217570350002</v>
       </c>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>0.95519044062733305</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>0.78415094339622604</v>
       </c>
@@ -7418,8 +8223,11 @@
       <c r="O156">
         <v>0.94288079470198605</v>
       </c>
-    </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>0.97379197379197302</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>0.76821192052980103</v>
       </c>
@@ -7441,8 +8249,11 @@
       <c r="O157">
         <v>0.95499181669394395</v>
       </c>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>0.96554307116104798</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>0.75948406676782998</v>
       </c>
@@ -7464,8 +8275,11 @@
       <c r="O158">
         <v>0.958600999286224</v>
       </c>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>0.96776504297994204</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>0.78223495702005696</v>
       </c>
@@ -7487,8 +8301,11 @@
       <c r="O159">
         <v>0.95693779904306198</v>
       </c>
-    </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0.95691056910569094</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>0.76179427687548296</v>
       </c>
@@ -7510,8 +8327,11 @@
       <c r="O160">
         <v>0.95078125000000002</v>
       </c>
-    </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0.94795539033457199</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>0.76100628930817604</v>
       </c>
@@ -7533,8 +8353,11 @@
       <c r="O161">
         <v>0.95568685376661699</v>
       </c>
-    </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>0.95744680851063801</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>0.787337662337662</v>
       </c>
@@ -7556,8 +8379,11 @@
       <c r="O162">
         <v>0.94992743105950594</v>
       </c>
-    </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0.95222405271828603</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>0.78177966101694896</v>
       </c>
@@ -7579,8 +8405,11 @@
       <c r="O163">
         <v>0.95698113207547097</v>
       </c>
-    </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0.95470383275261295</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>0.75342465753424603</v>
       </c>
@@ -7602,8 +8431,11 @@
       <c r="O164">
         <v>0.950299914310197</v>
       </c>
-    </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0.96837606837606804</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>0.740976645435244</v>
       </c>
@@ -7625,8 +8457,11 @@
       <c r="O165">
         <v>0.96162201303403305</v>
       </c>
-    </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>0.97089041095890405</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>0.76030534351144996</v>
       </c>
@@ -7648,8 +8483,11 @@
       <c r="O166">
         <v>0.95713229859571303</v>
       </c>
-    </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>0.95341848234410198</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>0.79159802306424998</v>
       </c>
@@ -7671,8 +8509,11 @@
       <c r="O167">
         <v>0.93704600484261502</v>
       </c>
-    </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>0.95418641390205305</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>0.77673167451244096</v>
       </c>
@@ -7694,8 +8535,11 @@
       <c r="O168">
         <v>0.95414320193081203</v>
       </c>
-    </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0.96238757154538002</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>0.79092382495948099</v>
       </c>
@@ -7717,8 +8561,11 @@
       <c r="O169">
         <v>0.95335515548281502</v>
       </c>
-    </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0.96075224856909203</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>0.761552680221811</v>
       </c>
@@ -7740,8 +8587,11 @@
       <c r="O170">
         <v>0.96322999279019395</v>
       </c>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0.96501220504475105</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>0.76052027543993805</v>
       </c>
@@ -7763,8 +8613,11 @@
       <c r="O171">
         <v>0.95517774343122097</v>
       </c>
-    </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0.96397117694155299</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>0.77604976671850701</v>
       </c>
@@ -7786,8 +8639,11 @@
       <c r="O172">
         <v>0.93828124999999996</v>
       </c>
-    </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0.95897832817337403</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>0.77174929840972795</v>
       </c>
@@ -7809,8 +8665,11 @@
       <c r="O173">
         <v>0.95140845070422497</v>
       </c>
-    </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0.95973154362416102</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>0.78389482333607197</v>
       </c>
@@ -7832,8 +8691,11 @@
       <c r="O174">
         <v>0.95307692307692304</v>
       </c>
-    </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0.96335504885993395</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>0.75936719400499497</v>
       </c>
@@ -7855,8 +8717,11 @@
       <c r="O175">
         <v>0.952274422073079</v>
       </c>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0.96302250803858502</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>0.76124031007751902</v>
       </c>
@@ -7878,8 +8743,11 @@
       <c r="O176">
         <v>0.95148669796557095</v>
       </c>
-    </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0.96713615023474098</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>0.778962331201137</v>
       </c>
@@ -7901,8 +8769,11 @@
       <c r="O177">
         <v>0.95791114575214298</v>
       </c>
-    </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>0.95848506919155096</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>0.78323932312651001</v>
       </c>
@@ -7924,8 +8795,11 @@
       <c r="O178">
         <v>0.95310015898251099</v>
       </c>
-    </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>0.95877754086709299</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>0.77526132404181103</v>
       </c>
@@ -7947,8 +8821,11 @@
       <c r="O179">
         <v>0.95412130637635995</v>
       </c>
-    </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>0.96737357259380097</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>0.77159468438538203</v>
       </c>
@@ -7970,8 +8847,11 @@
       <c r="O180">
         <v>0.94195444526083705</v>
       </c>
-    </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>0.95256312165263901</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>0.75399583043780405</v>
       </c>
@@ -7993,8 +8873,11 @@
       <c r="O181">
         <v>0.95047923322683703</v>
       </c>
-    </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0.96293656450463205</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>0.76193975018368798</v>
       </c>
@@ -8016,8 +8899,11 @@
       <c r="O182">
         <v>0.953356890459364</v>
       </c>
-    </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>0.95947063688999101</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>0.77080062794348503</v>
       </c>
@@ -8039,8 +8925,11 @@
       <c r="O183">
         <v>0.94979079497907903</v>
       </c>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0.95533141210374595</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>0.76124284546197796</v>
       </c>
@@ -8062,8 +8951,11 @@
       <c r="O184">
         <v>0.94512694512694495</v>
       </c>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0.95850973751058399</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>0.77244094488188897</v>
       </c>
@@ -8085,8 +8977,11 @@
       <c r="O185">
         <v>0.930449533502968</v>
       </c>
-    </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0.951864406779661</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>0.75877192982456099</v>
       </c>
@@ -8108,8 +9003,11 @@
       <c r="O186">
         <v>0.93007582139848299</v>
       </c>
-    </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>0.96732522796352505</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>0.77662517289073296</v>
       </c>
@@ -8131,8 +9029,11 @@
       <c r="O187">
         <v>0.955368693402328</v>
       </c>
-    </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0.96234843650287105</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>0.76018099547511297</v>
       </c>
@@ -8154,8 +9055,11 @@
       <c r="O188">
         <v>0.95764909248055297</v>
       </c>
-    </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>0.95821325648414901</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>0.77367576243980696</v>
       </c>
@@ -8177,8 +9081,11 @@
       <c r="O189">
         <v>0.954113924050632</v>
       </c>
-    </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>0.96339563862928301</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>0.781462585034013</v>
       </c>
@@ -8200,8 +9107,11 @@
       <c r="O190">
         <v>0.95592705167173198</v>
       </c>
-    </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0.96265560165975095</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>0.76071428571428501</v>
       </c>
@@ -8223,8 +9133,11 @@
       <c r="O191">
         <v>0.94827586206896497</v>
       </c>
-    </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0.96877168632893795</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>0.79377713458755395</v>
       </c>
@@ -8246,8 +9159,11 @@
       <c r="O192">
         <v>0.96046720575022404</v>
       </c>
-    </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0.95765973826020001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>0.77426992896606095</v>
       </c>
@@ -8269,8 +9185,11 @@
       <c r="O193">
         <v>0.94126984126984103</v>
       </c>
-    </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0.95639097744360901</v>
+      </c>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>0.77211155378485996</v>
       </c>
@@ -8292,8 +9211,11 @@
       <c r="O194">
         <v>0.94573643410852704</v>
       </c>
-    </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0.96380090497737503</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>0.77136431784107895</v>
       </c>
@@ -8315,8 +9237,11 @@
       <c r="O195">
         <v>0.95260663507109</v>
       </c>
-    </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>0.96356877323419998</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>0.77231467473524895</v>
       </c>
@@ -8338,8 +9263,11 @@
       <c r="O196">
         <v>0.96054750402576405</v>
       </c>
-    </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>0.95612582781456901</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>0.76394502829426003</v>
       </c>
@@ -8361,8 +9289,11 @@
       <c r="O197">
         <v>0.96450617283950602</v>
       </c>
-    </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0.966089466089466</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>0.77760127084987996</v>
       </c>
@@ -8384,8 +9315,11 @@
       <c r="O198">
         <v>0.95089285714285698</v>
       </c>
-    </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0.95964783565663903</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>0.75705731394354103</v>
       </c>
@@ -8407,8 +9341,11 @@
       <c r="O199">
         <v>0.94637462235649505</v>
       </c>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>0.95853658536585296</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>0.76507936507936503</v>
       </c>
@@ -8430,8 +9367,11 @@
       <c r="O200">
         <v>0.94495412844036697</v>
       </c>
-    </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>0.79426172148355401</v>
       </c>
@@ -8453,8 +9393,11 @@
       <c r="O201">
         <v>0.96059113300492605</v>
       </c>
-    </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0.95785440613026795</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>0.767459138187221</v>
       </c>
@@ -8476,8 +9419,11 @@
       <c r="O202">
         <v>0.96830188679245199</v>
       </c>
-    </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>0.96565934065934</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>0.75508864084044602</v>
       </c>
@@ -8499,8 +9445,11 @@
       <c r="O203">
         <v>0.95433436532507698</v>
       </c>
-    </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>0.96036333608587898</v>
+      </c>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>0.75728155339805803</v>
       </c>
@@ -8522,8 +9471,11 @@
       <c r="O204">
         <v>0.94846153846153802</v>
       </c>
-    </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>0.96889226100151704</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>0.75127644055433995</v>
       </c>
@@ -8545,8 +9497,11 @@
       <c r="O205">
         <v>0.95560407569141104</v>
       </c>
-    </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0.96335877862595398</v>
+      </c>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>0.75039246467817899</v>
       </c>
@@ -8568,8 +9523,11 @@
       <c r="O206">
         <v>0.96571906354515002</v>
       </c>
-    </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>0.96705559368565497</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>0.765625</v>
       </c>
@@ -8591,8 +9549,11 @@
       <c r="O207">
         <v>0.95216191352345902</v>
       </c>
-    </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>0.96942148760330504</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>0.77725437415881504</v>
       </c>
@@ -8614,8 +9575,11 @@
       <c r="O208">
         <v>0.960995850622406</v>
       </c>
-    </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0.95859872611464902</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>0.78757225433526001</v>
       </c>
@@ -8637,8 +9601,11 @@
       <c r="O209">
         <v>0.95458440445586901</v>
       </c>
-    </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0.95661450924608804</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>0.79175704989154005</v>
       </c>
@@ -8660,8 +9627,11 @@
       <c r="O210">
         <v>0.94607190412782904</v>
       </c>
-    </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>0.96246006389776295</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>0.77331311599696695</v>
       </c>
@@ -8683,8 +9653,11 @@
       <c r="O211">
         <v>0.94817813765182102</v>
       </c>
-    </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>0.96047430830039504</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>0.75981873111782405</v>
       </c>
@@ -8706,8 +9679,11 @@
       <c r="O212">
         <v>0.951463240542469</v>
       </c>
-    </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>0.75782414307004398</v>
       </c>
@@ -8729,8 +9705,11 @@
       <c r="O213">
         <v>0.95301487862176903</v>
       </c>
-    </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>0.96187450357426496</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>0.76707132018209401</v>
       </c>
@@ -8752,8 +9731,11 @@
       <c r="O214">
         <v>0.95508274231678403</v>
       </c>
-    </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>0.96483825597749595</v>
+      </c>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>0.77214231642694897</v>
       </c>
@@ -8775,8 +9757,11 @@
       <c r="O215">
         <v>0.95795107033639104</v>
       </c>
-    </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>0.96526237989652597</v>
+      </c>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>0.74080410607356695</v>
       </c>
@@ -8798,8 +9783,11 @@
       <c r="O216">
         <v>0.94888178913737997</v>
       </c>
-    </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>0.96887796887796795</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>0.77419354838709598</v>
       </c>
@@ -8821,8 +9809,11 @@
       <c r="O217">
         <v>0.95905172413793105</v>
       </c>
-    </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>0.96792301523656699</v>
+      </c>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>0.76445993031358805</v>
       </c>
@@ -8844,8 +9835,11 @@
       <c r="O218">
         <v>0.957414448669201</v>
       </c>
-    </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>0.961871750433275</v>
+      </c>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>0.78280890253261703</v>
       </c>
@@ -8867,8 +9861,11 @@
       <c r="O219">
         <v>0.95509222133119398</v>
       </c>
-    </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>0.95594020456333595</v>
+      </c>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>0.74843330349149495</v>
       </c>
@@ -8890,8 +9887,11 @@
       <c r="O220">
         <v>0.95279720279720204</v>
       </c>
-    </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>0.95638126009693003</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>0.75224856909239501</v>
       </c>
@@ -8913,8 +9913,11 @@
       <c r="O221">
         <v>0.95055350553505502</v>
       </c>
-    </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>0.96082779009608199</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>0.75178997613365095</v>
       </c>
@@ -8936,8 +9939,11 @@
       <c r="O222">
         <v>0.95793103448275796</v>
       </c>
-    </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>0.96729297146833604</v>
+      </c>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>0.77904328018223201</v>
       </c>
@@ -8959,8 +9965,11 @@
       <c r="O223">
         <v>0.95502861815208495</v>
       </c>
-    </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>0.96929133858267702</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>0.78774289985052304</v>
       </c>
@@ -8982,8 +9991,11 @@
       <c r="O224">
         <v>0.96363636363636296</v>
       </c>
-    </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>0.96559297218155105</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>0.78805120910383997</v>
       </c>
@@ -9005,8 +10017,11 @@
       <c r="O225">
         <v>0.95259593679458199</v>
       </c>
-    </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>0.96012039127163196</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>0.78608825729244503</v>
       </c>
@@ -9028,8 +10043,11 @@
       <c r="O226">
         <v>0.94309507286606498</v>
       </c>
-    </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0.95803571428571399</v>
+      </c>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>0.77943485086342201</v>
       </c>
@@ -9051,8 +10069,11 @@
       <c r="O227">
         <v>0.96053469127943902</v>
       </c>
-    </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>0.954113924050632</v>
+      </c>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>0.77910685805422597</v>
       </c>
@@ -9074,8 +10095,11 @@
       <c r="O228">
         <v>0.94112903225806399</v>
       </c>
-    </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>0.96015037593984898</v>
+      </c>
+    </row>
+    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>0.75938803894297602</v>
       </c>
@@ -9097,23 +10121,28 @@
       <c r="O229">
         <v>0.95468750000000002</v>
       </c>
+      <c r="Q229">
+        <v>0.96661367249602503</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+  <mergeCells count="13">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
